--- a/biology/Biochimie/Carbonylcyanure_m-chlorophénylhydrazone/Carbonylcyanure_m-chlorophénylhydrazone.xlsx
+++ b/biology/Biochimie/Carbonylcyanure_m-chlorophénylhydrazone/Carbonylcyanure_m-chlorophénylhydrazone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carbonylcyanure_m-chloroph%C3%A9nylhydrazone</t>
+          <t>Carbonylcyanure_m-chlorophénylhydrazone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le carbonylcyanure m-chlorophénylhydrazone (CCCP) est un découpleur de la phosphorylation oxydative. Il s'agit d'une hydrazone liée à deux nitriles et à un noyau chlorobenzène agissant comme protonophore dans les systèmes biologiques, cette dernière propriété étant à l'origine de sa létalité : en dissipant le gradient électrochimique induit par le gradient de concentration de protons généré par la chaîne respiratoire[3], il a généralement pour effet de détruire progressivement les cellules des êtres vivants, jusqu'à tuer l'organisme entier[4],[5], ce qui résulte d'une perte d'efficacité de l'ATP synthase.
+Le carbonylcyanure m-chlorophénylhydrazone (CCCP) est un découpleur de la phosphorylation oxydative. Il s'agit d'une hydrazone liée à deux nitriles et à un noyau chlorobenzène agissant comme protonophore dans les systèmes biologiques, cette dernière propriété étant à l'origine de sa létalité : en dissipant le gradient électrochimique induit par le gradient de concentration de protons généré par la chaîne respiratoire, il a généralement pour effet de détruire progressivement les cellules des êtres vivants, jusqu'à tuer l'organisme entier ce qui résulte d'une perte d'efficacité de l'ATP synthase.
 </t>
         </is>
       </c>
